--- a/data/InputData.xlsx
+++ b/data/InputData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\python\DM\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\python\workforce_scheduling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E8967D-0B5B-4849-86D0-46318166AA93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099B4042-7E8A-4BB8-86CD-D4DD61D76DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-119" yWindow="-119" windowWidth="25603" windowHeight="13898" xr2:uid="{BCDF856C-6F0D-487F-8BC7-04FD1FA73F2E}"/>
+    <workbookView xWindow="-119" yWindow="-119" windowWidth="25603" windowHeight="13898" activeTab="3" xr2:uid="{BCDF856C-6F0D-487F-8BC7-04FD1FA73F2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -110,12 +110,6 @@
   </si>
   <si>
     <t>demand_specialQualification_per_Slot</t>
-  </si>
-  <si>
-    <t>max_employee_WorkingTime_per_Week</t>
-  </si>
-  <si>
-    <t>min_employee_WorkingTime_per_Week</t>
   </si>
   <si>
     <t>max_employee_WorkingTime_per_Day</t>
@@ -531,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56438F95-CB28-49F8-8745-B51411212C3C}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.2" x14ac:dyDescent="0.3"/>
@@ -577,7 +571,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -609,7 +603,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -641,7 +635,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -673,7 +667,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -737,7 +731,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -769,7 +763,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -801,7 +795,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1468,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454F732D-22D4-429E-9B60-E7DB5EEF4D90}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.2" x14ac:dyDescent="0.3"/>
@@ -1545,16 +1539,16 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>25</v>
+      <c r="A7" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>26</v>
+      <c r="A8" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -1562,7 +1556,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -1578,7 +1572,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.2" x14ac:dyDescent="0.3"/>

--- a/data/InputData.xlsx
+++ b/data/InputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\python\workforce_scheduling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099B4042-7E8A-4BB8-86CD-D4DD61D76DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06817145-2D20-4DA3-8E49-22CB4F1B07B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-119" yWindow="-119" windowWidth="25603" windowHeight="13898" activeTab="3" xr2:uid="{BCDF856C-6F0D-487F-8BC7-04FD1FA73F2E}"/>
+    <workbookView xWindow="-119" yWindow="-119" windowWidth="25603" windowHeight="13898" xr2:uid="{BCDF856C-6F0D-487F-8BC7-04FD1FA73F2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56438F95-CB28-49F8-8745-B51411212C3C}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.2" x14ac:dyDescent="0.3"/>
@@ -1462,7 +1462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454F732D-22D4-429E-9B60-E7DB5EEF4D90}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
